--- a/DeathTrap Dungeon Map.xlsx
+++ b/DeathTrap Dungeon Map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k_zeb\Documents\2018-2019 School Year\Semester 2\ICS3U\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2018-2019 School Year\Semester 2\ICS3U\CPT\CPT2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F72D985-0C45-401D-B64A-DC8CF12B6174}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC4C04C-50DA-4F84-B8BD-288375463432}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{85B14AB0-DF22-4A1D-AF82-67BF0BF00D36}"/>
+    <workbookView xWindow="690" yWindow="690" windowWidth="2400" windowHeight="585" xr2:uid="{85B14AB0-DF22-4A1D-AF82-67BF0BF00D36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="155">
   <si>
     <t>Exit</t>
   </si>
@@ -289,6 +289,213 @@
   </si>
   <si>
     <t>146, 219</t>
+  </si>
+  <si>
+    <t>271, 30, 212</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>Manticore poem</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>Skill -2</t>
+  </si>
+  <si>
+    <t>126, 83</t>
+  </si>
+  <si>
+    <t>Option one only if not searched Barbarian</t>
+  </si>
+  <si>
+    <t>265, 300, 327</t>
+  </si>
+  <si>
+    <t>Option one only if have Ring of Wishes</t>
+  </si>
+  <si>
+    <t>52, 369</t>
+  </si>
+  <si>
+    <t>rubbed liquid in wounds</t>
+  </si>
+  <si>
+    <t>Option one only if not opened red book</t>
+  </si>
+  <si>
+    <t>317, 117</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>1, 2</t>
+  </si>
+  <si>
+    <t>1, 2, 3</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5, 6</t>
+  </si>
+  <si>
+    <t>Scorpion, Manticore, No</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>301, 142</t>
+  </si>
+  <si>
+    <t>106, 383</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>307, 263, 136</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>152, 121</t>
+  </si>
+  <si>
+    <t>Roll two dice, compare against 8</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>381</t>
+  </si>
+  <si>
+    <t>343, 268</t>
+  </si>
+  <si>
+    <t>54, 261</t>
+  </si>
+  <si>
+    <t>Bloodbeast description</t>
+  </si>
+  <si>
+    <t>172, 357</t>
+  </si>
+  <si>
+    <t>Read Bloodbeast description</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Orc, 5, 5, Second Orc, 6, 4 </t>
+  </si>
+  <si>
+    <t>Skill -4 only for this fight.</t>
+  </si>
+  <si>
+    <t>284, 230</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>opal-studded dagger</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>iron shield</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>105, 235</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>266, 305</t>
+  </si>
+  <si>
+    <t>87, 217</t>
+  </si>
+  <si>
+    <t>133, 251</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>Goblet</t>
+  </si>
+  <si>
+    <t>Option one if not searched Barbarian</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>Doppelganger Potion</t>
+  </si>
+  <si>
+    <t>168, 267</t>
+  </si>
+  <si>
+    <t>394,59,14</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>43, 24</t>
+  </si>
+  <si>
+    <t>58,223</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>Provisions-2</t>
+  </si>
+  <si>
+    <t>371, 74</t>
+  </si>
+  <si>
+    <t>Ball thrown</t>
+  </si>
+  <si>
+    <t>Option one only if ball thrown &lt;2</t>
+  </si>
+  <si>
+    <t>336, 298</t>
+  </si>
+  <si>
+    <t>Ring on</t>
+  </si>
+  <si>
+    <t>Stamina +3</t>
+  </si>
+  <si>
+    <t>329, 135</t>
+  </si>
+  <si>
+    <t>60</t>
   </si>
 </sst>
 </file>
@@ -644,59 +851,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB858960-B3EB-46C4-ADC9-7102045BD3E6}">
-  <dimension ref="A1:H401"/>
+  <dimension ref="A1:I401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B69" sqref="B69"/>
+      <selection pane="bottomRight" activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -704,7 +918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -712,7 +926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -720,29 +934,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>364</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -750,7 +964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -758,29 +972,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -788,34 +1005,46 @@
         <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -823,18 +1052,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -842,18 +1074,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -861,41 +1093,44 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="2"/>
+      <c r="G22" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -903,15 +1138,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -919,18 +1157,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -938,18 +1176,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -957,29 +1195,29 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -987,21 +1225,21 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1009,100 +1247,112 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="I39" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="C42" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1110,18 +1360,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1129,18 +1379,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="H48" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1148,15 +1398,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C50" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1164,37 +1417,46 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="C53" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C54" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1202,64 +1464,76 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="C56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I56" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C57" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="I58" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="I59" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C60" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C61" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -1267,15 +1541,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C63" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -1283,343 +1560,631 @@
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="I65" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="H66" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C67" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B102" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B103" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B104" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B105" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B106" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B107" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B109" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B110" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B111" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B112" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B113" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B114" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B115" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B116" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B117" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B118" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B119" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>

--- a/DeathTrap Dungeon Map.xlsx
+++ b/DeathTrap Dungeon Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2018-2019 School Year\Semester 2\ICS3U\CPT\CPT2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC4C04C-50DA-4F84-B8BD-288375463432}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E9F882-EC09-4BEE-9236-5E9F5F072A34}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="690" windowWidth="2400" windowHeight="585" xr2:uid="{85B14AB0-DF22-4A1D-AF82-67BF0BF00D36}"/>
+    <workbookView xWindow="27570" yWindow="5970" windowWidth="2400" windowHeight="585" xr2:uid="{85B14AB0-DF22-4A1D-AF82-67BF0BF00D36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="217">
   <si>
     <t>Exit</t>
   </si>
@@ -496,6 +496,192 @@
   </si>
   <si>
     <t>60</t>
+  </si>
+  <si>
+    <t>56, 293</t>
+  </si>
+  <si>
+    <t>228, 292</t>
+  </si>
+  <si>
+    <t>26, 354</t>
+  </si>
+  <si>
+    <t>176,384</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>amulet of strength</t>
+  </si>
+  <si>
+    <t>Skill +1, Stamina +1</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>First Goblin, 5, 4, Second Goblin, 5,5</t>
+  </si>
+  <si>
+    <t>Attack at the same time.</t>
+  </si>
+  <si>
+    <t>69, 139</t>
+  </si>
+  <si>
+    <t>226,41,83</t>
+  </si>
+  <si>
+    <t>Option 2 only available if not walk to alcove.</t>
+  </si>
+  <si>
+    <t>35, 233</t>
+  </si>
+  <si>
+    <t>349,361,167</t>
+  </si>
+  <si>
+    <t>Bone Monkey Charm</t>
+  </si>
+  <si>
+    <t>Option 2 only if bone monkey charm.</t>
+  </si>
+  <si>
+    <t>1st Hobgoblin, 7, 5, 2nd Hobgoblin, 6, 5</t>
+  </si>
+  <si>
+    <t>Find one at a time</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6</t>
+  </si>
+  <si>
+    <t>178, 17</t>
+  </si>
+  <si>
+    <t>Roll two dice, compare with SKILL</t>
+  </si>
+  <si>
+    <t>222, 247</t>
+  </si>
+  <si>
+    <t>poem on Skeleton Warrior parchment</t>
+  </si>
+  <si>
+    <t>Skeleton Warrior parchment poem</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>210, 78</t>
+  </si>
+  <si>
+    <t>220, 362</t>
+  </si>
+  <si>
+    <t>397, 75, 52, 369</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4</t>
+  </si>
+  <si>
+    <t>Option 3 only if not opened red book.</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>Ivy, 9, 9</t>
+  </si>
+  <si>
+    <t>72, 96</t>
+  </si>
+  <si>
+    <t>Roll 2 dice, compare with skill</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>2, 163</t>
+  </si>
+  <si>
+    <t>Giant Scorpion, 10,10</t>
+  </si>
+  <si>
+    <t>Scorpion fight, both pincers attack. If strength ==22, return</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Dwarf, 8, 6</t>
+  </si>
+  <si>
+    <t>Skill-2 for the fight.</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>Water in bamboo pipe</t>
+  </si>
+  <si>
+    <t>Stamina +1, exposed to melting-point temps.</t>
+  </si>
+  <si>
+    <t>175, 315</t>
+  </si>
+  <si>
+    <t>ESCAPE, FIGHT</t>
+  </si>
+  <si>
+    <t>1st Guard Dog, 7, 7, 2nd Guard Dog, 7, 8</t>
+  </si>
+  <si>
+    <t>After killing first dog</t>
+  </si>
+  <si>
+    <t>70, 353</t>
+  </si>
+  <si>
+    <t>Brass Bell</t>
+  </si>
+  <si>
+    <t>Skill -1</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>1st Flying Guardian, 7, 8, 2nd Flying Guardian, 8, 8</t>
+  </si>
+  <si>
+    <t>One at a time</t>
+  </si>
+  <si>
+    <t>Roll 2 dice, compare to Skill</t>
+  </si>
+  <si>
+    <t>390, 371, 74</t>
+  </si>
+  <si>
+    <t>2 wooden balls if option 3</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>378,322</t>
   </si>
 </sst>
 </file>
@@ -854,10 +1040,10 @@
   <dimension ref="A1:I401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B146" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B120" sqref="B120"/>
+      <selection pane="bottomRight" activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,9 +1053,9 @@
     <col min="3" max="3" width="21.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -886,7 +1072,7 @@
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1114,7 +1300,6 @@
       <c r="E22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="2"/>
       <c r="G22" s="1" t="s">
         <v>6</v>
       </c>
@@ -1301,7 +1486,7 @@
       <c r="E40" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1631,12 +1816,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>89</v>
@@ -2148,203 +2336,452 @@
       <c r="A120" s="1">
         <v>119</v>
       </c>
+      <c r="B120" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
+      <c r="B121" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
+      <c r="B122" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B123" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B124" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
+      <c r="B126" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
+      <c r="B127" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B128" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B129" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B130" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B131" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B132" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B133" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B134" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B135" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B136" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B137" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B138" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B139" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B140" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B141" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B142" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B143" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B144" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B145" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B146" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B147" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B148" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B149" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B150" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B151" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B152" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B153" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B154" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B155" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B156" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>159</v>
       </c>

--- a/DeathTrap Dungeon Map.xlsx
+++ b/DeathTrap Dungeon Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2018-2019 School Year\Semester 2\ICS3U\CPT\CPT2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E9F882-EC09-4BEE-9236-5E9F5F072A34}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD77E919-FB9C-47FA-BA44-5A37D50B5BF8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27570" yWindow="5970" windowWidth="2400" windowHeight="585" xr2:uid="{85B14AB0-DF22-4A1D-AF82-67BF0BF00D36}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="222">
   <si>
     <t>Exit</t>
   </si>
@@ -682,6 +682,21 @@
   </si>
   <si>
     <t>378,322</t>
+  </si>
+  <si>
+    <t>208, 326</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>pearl</t>
+  </si>
+  <si>
+    <t>Luck +1</t>
+  </si>
+  <si>
+    <t>275</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +1058,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B146" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B157" sqref="B157"/>
+      <selection pane="bottomRight" activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2770,15 +2785,36 @@
       <c r="A157" s="1">
         <v>156</v>
       </c>
+      <c r="B157" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>157</v>
       </c>
+      <c r="B158" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">

--- a/DeathTrap Dungeon Map.xlsx
+++ b/DeathTrap Dungeon Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2018-2019 School Year\Semester 2\ICS3U\CPT\CPT2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD77E919-FB9C-47FA-BA44-5A37D50B5BF8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0282CB2-0CD2-408E-8DA9-1CC3DCAF5F8C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27570" yWindow="5970" windowWidth="2400" windowHeight="585" xr2:uid="{85B14AB0-DF22-4A1D-AF82-67BF0BF00D36}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="240">
   <si>
     <t>Exit</t>
   </si>
@@ -666,9 +666,6 @@
     <t>1st Flying Guardian, 7, 8, 2nd Flying Guardian, 8, 8</t>
   </si>
   <si>
-    <t>One at a time</t>
-  </si>
-  <si>
     <t>Roll 2 dice, compare to Skill</t>
   </si>
   <si>
@@ -697,6 +694,63 @@
   </si>
   <si>
     <t>275</t>
+  </si>
+  <si>
+    <t>294, 334</t>
+  </si>
+  <si>
+    <t>Dagger</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Lose all gems</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>iron key, sapphire</t>
+  </si>
+  <si>
+    <t>361, 302</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>299, 83</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>stilts</t>
+  </si>
+  <si>
+    <t>use coin</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>One at a time, skill -2 for fight</t>
+  </si>
+  <si>
+    <t>Skill -3 for fight, one at a time</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>Stamina-4</t>
+  </si>
+  <si>
+    <t>94, 267</t>
   </si>
 </sst>
 </file>
@@ -1055,10 +1109,10 @@
   <dimension ref="A1:I401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B146" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B158" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B160" sqref="B160"/>
+      <selection pane="bottomRight" activeCell="B170" sqref="B170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2734,7 +2788,7 @@
         <v>210</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -2745,7 +2799,7 @@
         <v>21</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2753,13 +2807,13 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -2767,7 +2821,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -2775,7 +2829,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>101</v>
@@ -2786,7 +2840,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>101</v>
@@ -2797,13 +2851,13 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="I158" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="I158" s="1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -2811,7 +2865,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I159" s="1" t="s">
         <v>59</v>
@@ -2821,83 +2875,149 @@
       <c r="A160" s="1">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B160" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B161" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B162" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B163" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B164" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B165" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B166" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B167" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B168" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B169" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>175</v>
       </c>

--- a/DeathTrap Dungeon Map.xlsx
+++ b/DeathTrap Dungeon Map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2018-2019 School Year\Semester 2\ICS3U\CPT\CPT2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k_zeb\eclipse-workspace\CPT2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0282CB2-0CD2-408E-8DA9-1CC3DCAF5F8C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02074C8E-A16F-43B0-ABDC-74D6FE06755B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27570" yWindow="5970" windowWidth="2400" windowHeight="585" xr2:uid="{85B14AB0-DF22-4A1D-AF82-67BF0BF00D36}"/>
+    <workbookView xWindow="1905" yWindow="1455" windowWidth="21600" windowHeight="11385" xr2:uid="{85B14AB0-DF22-4A1D-AF82-67BF0BF00D36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="349">
   <si>
     <t>Exit</t>
   </si>
@@ -384,9 +384,6 @@
     <t>54, 261</t>
   </si>
   <si>
-    <t>Bloodbeast description</t>
-  </si>
-  <si>
     <t>172, 357</t>
   </si>
   <si>
@@ -751,6 +748,336 @@
   </si>
   <si>
     <t>94, 267</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>rope</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>Bloodbeast, 12, 10</t>
+  </si>
+  <si>
+    <t>Stop after second round won.</t>
+  </si>
+  <si>
+    <t>337, 368</t>
+  </si>
+  <si>
+    <t>Stamina +1, Skill +2, Option one only if not drink from other fountain.</t>
+  </si>
+  <si>
+    <t>39, 350</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>leprechaun tooth</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>243, 103</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>290,191,84</t>
+  </si>
+  <si>
+    <t>53, 272</t>
+  </si>
+  <si>
+    <t>312, 45</t>
+  </si>
+  <si>
+    <t>25, 242</t>
+  </si>
+  <si>
+    <t>Water from bamboo pipe</t>
+  </si>
+  <si>
+    <t>386, 218</t>
+  </si>
+  <si>
+    <t>Lose stilts</t>
+  </si>
+  <si>
+    <t>323, 149</t>
+  </si>
+  <si>
+    <t>318, 47</t>
+  </si>
+  <si>
+    <t>260, 358</t>
+  </si>
+  <si>
+    <t>360, 280</t>
+  </si>
+  <si>
+    <t>155, 224</t>
+  </si>
+  <si>
+    <t>Spirit girl poem</t>
+  </si>
+  <si>
+    <t>First ORC, 5, 5, Second ORC, 6, 4</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Roll 2 dice. Compare to 8</t>
+  </si>
+  <si>
+    <t>120, 292</t>
+  </si>
+  <si>
+    <t>52, 138, 369</t>
+  </si>
+  <si>
+    <t>opened black book</t>
+  </si>
+  <si>
+    <t>Bloodbeast description, opened red book</t>
+  </si>
+  <si>
+    <t>382</t>
+  </si>
+  <si>
+    <t>Stamina -1</t>
+  </si>
+  <si>
+    <t>364</t>
+  </si>
+  <si>
+    <t>Manticore, 11, 11</t>
+  </si>
+  <si>
+    <t>171, 156, 326</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>Roll 1 die, lose 2 stamina for each point.</t>
+  </si>
+  <si>
+    <t>321, 316</t>
+  </si>
+  <si>
+    <t>old bone</t>
+  </si>
+  <si>
+    <t>18, 42</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>Pit Fiend, 12,15</t>
+  </si>
+  <si>
+    <t>131, 199</t>
+  </si>
+  <si>
+    <t>306, 161</t>
+  </si>
+  <si>
+    <t>Provisions -2, Stamina +4</t>
+  </si>
+  <si>
+    <t>Provisions =0, lose one item, jewel or potion.</t>
+  </si>
+  <si>
+    <t>27, 78</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>108, 14</t>
+  </si>
+  <si>
+    <t>389, 181</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Stamina -2</t>
+  </si>
+  <si>
+    <t>308, 316</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Lose shield, Skill -1 if have shield</t>
+  </si>
+  <si>
+    <t>65, 252</t>
+  </si>
+  <si>
+    <t>61, 346</t>
+  </si>
+  <si>
+    <t>Skill -2, Stamina -2</t>
+  </si>
+  <si>
+    <t>374, 60</t>
+  </si>
+  <si>
+    <t>196, 6</t>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>Luck -2, Roll 2 dice, subtract one stamina for each point</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>97, 21</t>
+  </si>
+  <si>
+    <t>BLOODBEAST, 12, 10</t>
+  </si>
+  <si>
+    <t>After first round win</t>
+  </si>
+  <si>
+    <t>41, 83</t>
+  </si>
+  <si>
+    <t>herb meat</t>
+  </si>
+  <si>
+    <t>Stamina +3, option 1 only if not walked to alcove</t>
+  </si>
+  <si>
+    <t>150, 33</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>spirit girl poem</t>
+  </si>
+  <si>
+    <t>88, 5, 385</t>
+  </si>
+  <si>
+    <t>Doppelganger potion for option 3</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>286, 320</t>
+  </si>
+  <si>
+    <t>Unarmed?</t>
+  </si>
+  <si>
+    <t>183, 207</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>Imitator, 9, 8</t>
+  </si>
+  <si>
+    <t>Win first attack round</t>
+  </si>
+  <si>
+    <t>12, 100</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>Helmet</t>
+  </si>
+  <si>
+    <t>34, 89</t>
+  </si>
+  <si>
+    <t>102, 344</t>
+  </si>
+  <si>
+    <t>393, 291</t>
+  </si>
+  <si>
+    <t>48, 366</t>
+  </si>
+  <si>
+    <t>Roll 2 dice, compare to skill</t>
+  </si>
+  <si>
+    <t>Gold -1</t>
+  </si>
+  <si>
+    <t>Pit Fiend, 12, 15</t>
+  </si>
+  <si>
+    <t>Luck -2, roll 2 dice, Stamina-1 for each point.</t>
+  </si>
+  <si>
+    <t>Roll 1 die, Stamina -2 for each point</t>
+  </si>
+  <si>
+    <t>Roll one die, add 1 and subtract from Stamina</t>
+  </si>
+  <si>
+    <t>44, 195, 382</t>
+  </si>
+  <si>
+    <t>gold ring</t>
+  </si>
+  <si>
+    <t>Lose bone</t>
+  </si>
+  <si>
+    <t>76, 117</t>
+  </si>
+  <si>
+    <t>Rock Grub, 7, 11</t>
+  </si>
+  <si>
+    <t>After two rounds</t>
+  </si>
+  <si>
+    <t>Old man advice re: doppelganger</t>
+  </si>
+  <si>
+    <t>Doppelganger potion</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>Gold Piece, hollow wooden tube</t>
+  </si>
+  <si>
+    <t>95, 248</t>
+  </si>
+  <si>
+    <t>166, 140</t>
   </si>
 </sst>
 </file>
@@ -1109,10 +1436,10 @@
   <dimension ref="A1:I401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B158" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B251" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B170" sqref="B170"/>
+      <selection pane="bottomRight" activeCell="B262" sqref="B262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,7 +1450,7 @@
     <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1144,7 +1471,7 @@
       <c r="F1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -1196,7 +1523,7 @@
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1369,7 +1696,7 @@
       <c r="E22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1456,7 +1783,7 @@
       <c r="B31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1682,7 +2009,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1693,7 +2020,7 @@
         <v>101</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>117</v>
+        <v>271</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>68</v>
@@ -1825,7 +2152,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -1854,7 +2181,7 @@
       <c r="B68" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G68" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1893,7 +2220,7 @@
         <v>88</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>89</v>
@@ -1924,7 +2251,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -1992,7 +2319,7 @@
       <c r="B80" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="G80" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2081,19 +2408,19 @@
       <c r="B90" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="G90" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H91" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2101,13 +2428,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="I92" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -2123,7 +2450,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>101</v>
@@ -2134,10 +2461,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -2145,10 +2472,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>34</v>
@@ -2167,7 +2494,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -2175,10 +2502,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -2186,7 +2513,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>101</v>
@@ -2197,7 +2524,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>101</v>
@@ -2216,7 +2543,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>101</v>
@@ -2227,7 +2554,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>49</v>
@@ -2238,7 +2565,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -2252,10 +2579,10 @@
         <v>101</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I106" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2263,10 +2590,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -2274,7 +2601,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>101</v>
@@ -2285,10 +2612,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -2296,7 +2623,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>101</v>
@@ -2307,7 +2634,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>101</v>
@@ -2318,7 +2645,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -2326,10 +2653,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I113" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -2337,16 +2664,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D114" s="2" t="s">
+      <c r="I114" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -2354,7 +2681,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>101</v>
@@ -2368,10 +2695,10 @@
         <v>64</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I116" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -2387,7 +2714,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>101</v>
@@ -2398,7 +2725,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -2406,7 +2733,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>101</v>
@@ -2417,7 +2744,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>101</v>
@@ -2428,7 +2755,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -2436,7 +2763,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>101</v>
@@ -2447,13 +2774,13 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="I124" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2461,13 +2788,13 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="I125" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -2475,9 +2802,9 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G126" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2486,13 +2813,13 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>102</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -2508,27 +2835,27 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H130" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D130" s="2" t="s">
+      <c r="I130" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="I130" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2539,10 +2866,10 @@
         <v>65</v>
       </c>
       <c r="E131" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I131" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -2550,7 +2877,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -2561,7 +2888,7 @@
         <v>19</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>20</v>
@@ -2572,21 +2899,21 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I134" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="I134" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H135" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -2594,7 +2921,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -2602,7 +2929,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>101</v>
@@ -2613,24 +2940,27 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="D139" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="I139" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="I139" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -2638,10 +2968,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -2657,10 +2987,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I142" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="I142" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -2668,7 +2998,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2676,13 +3006,13 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E144" s="2" t="s">
+      <c r="I144" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="I144" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -2690,7 +3020,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -2698,13 +3028,13 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="I146" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="I146" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -2726,13 +3056,13 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="I148" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="I148" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2740,16 +3070,16 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="E149" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E149" s="2" t="s">
+      <c r="F149" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -2757,9 +3087,9 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G150" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2771,10 +3101,10 @@
         <v>40</v>
       </c>
       <c r="D151" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I151" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="I151" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2782,13 +3112,13 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E152" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="I152" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -2799,7 +3129,7 @@
         <v>21</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2807,13 +3137,13 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -2821,7 +3151,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -2829,7 +3159,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>101</v>
@@ -2840,7 +3170,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>101</v>
@@ -2851,13 +3181,13 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="I158" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="I158" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -2865,7 +3195,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I159" s="1" t="s">
         <v>59</v>
@@ -2876,10 +3206,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H160" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="H160" s="2" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -2887,7 +3217,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -2895,10 +3225,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I162" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="I162" s="1" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2906,13 +3236,13 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D163" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="I163" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -2920,10 +3250,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -2931,7 +3261,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>101</v>
@@ -2942,13 +3272,13 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D166" s="2" t="s">
+      <c r="I166" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="I166" s="1" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2956,13 +3286,13 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -2970,10 +3300,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I168" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="I168" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -2981,7 +3311,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>101</v>
@@ -3001,503 +3331,1052 @@
       <c r="A172" s="1">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B172" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
+      <c r="B174" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B175" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B176" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B177" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B178" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B179" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B180" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B181" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B182" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B183" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B184" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B185" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B186" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B187" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B188" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B189" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H189" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B190" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B191" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B192" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B193" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B194" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B195" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B196" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B197" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B198" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B199" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B200" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B201" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B202" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B203" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B204" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B205" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B206" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B207" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I207" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B208" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I208" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B209" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B210" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B211" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B212" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B213" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B214" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B215" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B216" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I216" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B217" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B218" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B219" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B220" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B221" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I221" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B222" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B223" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H223" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B224" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I224" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B225" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B226" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B227" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="I227" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B228" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B229" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B230" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B231" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H231" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B232" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B233" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H233" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B234" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B235" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H235" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B236" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I236" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B237" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="I237" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B238" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B239" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="I239" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B240" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B241" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B242" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B243" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="I243" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B244" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B245" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="I245" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B246" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B247" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I247" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B248" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I248" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B249" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B250" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I250" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B251" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B252" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B253" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B254" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I254" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>254</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B255" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B256" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B257" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B258" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B259" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B260" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B261" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>271</v>
       </c>

--- a/DeathTrap Dungeon Map.xlsx
+++ b/DeathTrap Dungeon Map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k_zeb\eclipse-workspace\CPT2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e24510\Documents\2018-2019 School Year\Github Training\CPT2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02074C8E-A16F-43B0-ABDC-74D6FE06755B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCA11C5-2AD2-4116-852D-359F8C814900}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1455" windowWidth="21600" windowHeight="11385" xr2:uid="{85B14AB0-DF22-4A1D-AF82-67BF0BF00D36}"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="9255" windowHeight="6900" xr2:uid="{85B14AB0-DF22-4A1D-AF82-67BF0BF00D36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="387">
   <si>
     <t>Exit</t>
   </si>
@@ -1078,6 +1078,120 @@
   </si>
   <si>
     <t>166, 140</t>
+  </si>
+  <si>
+    <t>Lose rope</t>
+  </si>
+  <si>
+    <t>337, 173, 368</t>
+  </si>
+  <si>
+    <t>153, 74</t>
+  </si>
+  <si>
+    <t>130,51,355</t>
+  </si>
+  <si>
+    <t>352, 68</t>
+  </si>
+  <si>
+    <t>330, 127</t>
+  </si>
+  <si>
+    <t>contents of jar into wounds</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>Gold x2, note from Sukumvit</t>
+  </si>
+  <si>
+    <t>Lose Shield, Skill -1</t>
+  </si>
+  <si>
+    <t>15, 204</t>
+  </si>
+  <si>
+    <t>topaz x2</t>
+  </si>
+  <si>
+    <t>238, 359</t>
+  </si>
+  <si>
+    <t>231, 309</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>399,192</t>
+  </si>
+  <si>
+    <t>Elf advice, daggers x2</t>
+  </si>
+  <si>
+    <t>22, 388</t>
+  </si>
+  <si>
+    <t>398, 57</t>
+  </si>
+  <si>
+    <t>potion from black leather book</t>
+  </si>
+  <si>
+    <t>ruby</t>
+  </si>
+  <si>
+    <t>Skill -1, Stamina -2</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>long knife, curved sword from ninja</t>
+  </si>
+  <si>
+    <t>Skill +4</t>
+  </si>
+  <si>
+    <t>Roll 1 die, add 1, subtract from stamina</t>
+  </si>
+  <si>
+    <t>64, 221</t>
+  </si>
+  <si>
+    <t>bone ring</t>
+  </si>
+  <si>
+    <t>216, 19</t>
+  </si>
+  <si>
+    <t>152,121</t>
+  </si>
+  <si>
+    <t>Roll 2 dice, compare to 8</t>
+  </si>
+  <si>
+    <t>93, 230</t>
+  </si>
+  <si>
+    <t>137,387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,2 </t>
+  </si>
+  <si>
+    <t>Skill -2 for the fight, win first attack round</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>Stamina -5</t>
   </si>
 </sst>
 </file>
@@ -1436,10 +1550,10 @@
   <dimension ref="A1:I401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B251" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B279" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B262" sqref="B262"/>
+      <selection pane="bottomRight" activeCell="C292" sqref="C292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2148,6 +2262,9 @@
       <c r="B65" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="D65" s="2" t="s">
+        <v>377</v>
+      </c>
       <c r="I65" s="1" t="s">
         <v>76</v>
       </c>
@@ -4271,7 +4388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -4282,7 +4399,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -4293,7 +4410,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -4304,7 +4421,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -4315,7 +4432,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -4326,217 +4443,415 @@
         <v>101</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B262" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I262" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>262</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B263" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>263</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B264" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B265" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B266" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>266</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B267" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>267</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B268" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>268</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B269" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>269</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B270" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="I270" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>270</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B271" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>271</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B272" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I272" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B273" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>273</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B274" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B275" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="I275" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B276" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G276" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>276</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B277" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>277</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B278" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B279" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>279</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B280" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>280</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B281" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>281</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B282" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>282</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B283" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>283</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B284" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>284</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B285" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="H285" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>285</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B286" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="I286" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B287" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="I287" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>287</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B288" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I288" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B289" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>289</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B290" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G290" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B291" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I291" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B292" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>292</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B293" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>293</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B294" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>294</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B295" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I295" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>295</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B296" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="I296" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>303</v>
       </c>

--- a/DeathTrap Dungeon Map.xlsx
+++ b/DeathTrap Dungeon Map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e24510\Documents\2018-2019 School Year\Github Training\CPT2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2018-2019 School Year\Semester 2\ICS3U\CPT\CPT2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCA11C5-2AD2-4116-852D-359F8C814900}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8380961C-754E-4990-972B-ED18977557FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="9255" windowHeight="6900" xr2:uid="{85B14AB0-DF22-4A1D-AF82-67BF0BF00D36}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{85B14AB0-DF22-4A1D-AF82-67BF0BF00D36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="435">
   <si>
     <t>Exit</t>
   </si>
@@ -156,9 +156,6 @@
     <t>292</t>
   </si>
   <si>
-    <t>brass bell</t>
-  </si>
-  <si>
     <t>Skill -3</t>
   </si>
   <si>
@@ -651,9 +648,6 @@
     <t>70, 353</t>
   </si>
   <si>
-    <t>Brass Bell</t>
-  </si>
-  <si>
     <t>Skill -1</t>
   </si>
   <si>
@@ -1098,9 +1092,6 @@
     <t>330, 127</t>
   </si>
   <si>
-    <t>contents of jar into wounds</t>
-  </si>
-  <si>
     <t>66</t>
   </si>
   <si>
@@ -1192,6 +1183,159 @@
   </si>
   <si>
     <t>Stamina -5</t>
+  </si>
+  <si>
+    <t>49, 241</t>
+  </si>
+  <si>
+    <t>Luck -1</t>
+  </si>
+  <si>
+    <t>304, 279</t>
+  </si>
+  <si>
+    <t>126, 41, 83</t>
+  </si>
+  <si>
+    <t>search barbarian</t>
+  </si>
+  <si>
+    <t>Search Alcove</t>
+  </si>
+  <si>
+    <t>141, 327</t>
+  </si>
+  <si>
+    <t>162, 4</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>Throm, 10, 12</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>Lose jug of acid</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Stamina-6</t>
+  </si>
+  <si>
+    <t>gold piece</t>
+  </si>
+  <si>
+    <t>253, 148</t>
+  </si>
+  <si>
+    <t>Luck -2, lose all items</t>
+  </si>
+  <si>
+    <t>263, 136</t>
+  </si>
+  <si>
+    <t>mallet, 10 spikes</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>garnet</t>
+  </si>
+  <si>
+    <t>231, 193</t>
+  </si>
+  <si>
+    <t>339, 262</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>Ninja, 11,9</t>
+  </si>
+  <si>
+    <t>129, 245</t>
+  </si>
+  <si>
+    <t>grappling iron, rope</t>
+  </si>
+  <si>
+    <t>brass bell, grappling iron</t>
+  </si>
+  <si>
+    <t>Brass Bell, grappling iron</t>
+  </si>
+  <si>
+    <t>296, 241</t>
+  </si>
+  <si>
+    <t>iron key</t>
+  </si>
+  <si>
+    <t>330, 269, 127</t>
+  </si>
+  <si>
+    <t>diamond if option 3</t>
+  </si>
+  <si>
+    <t>contents of jar into wounds, diamond if option 2</t>
+  </si>
+  <si>
+    <t>289, 316</t>
+  </si>
+  <si>
+    <t>256, 79</t>
+  </si>
+  <si>
+    <t>Talked to crippled servant</t>
+  </si>
+  <si>
+    <t>talk to crippled servant</t>
+  </si>
+  <si>
+    <t>91, 189, 380</t>
+  </si>
+  <si>
+    <t>Roll one die, option 1 is 1-2, option 2 is 3-4, option 3 is 5-6</t>
+  </si>
+  <si>
+    <t>8, 92</t>
+  </si>
+  <si>
+    <t>Mirror Demon, 10,10</t>
+  </si>
+  <si>
+    <t>Flawless fight</t>
+  </si>
+  <si>
+    <t>125, 99</t>
+  </si>
+  <si>
+    <t>269, 127</t>
+  </si>
+  <si>
+    <t>Stamina +1, option 1 only if not used ointment</t>
+  </si>
+  <si>
+    <t>diamond if option 2</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>Skeleton Warrior, 8, 6</t>
   </si>
 </sst>
 </file>
@@ -1550,10 +1694,10 @@
   <dimension ref="A1:I401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B279" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B317" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C292" sqref="C292"/>
+      <selection pane="bottomRight" activeCell="B333" sqref="B333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1566,7 +1710,8 @@
     <col min="6" max="6" width="8.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="25.85546875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1574,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -1583,7 +1728,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
@@ -1591,7 +1736,7 @@
       <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1603,7 +1748,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1676,10 +1821,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1689,7 +1834,7 @@
       <c r="H11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1701,7 +1846,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>14</v>
@@ -1715,7 +1860,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1726,7 +1871,7 @@
         <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1737,7 +1882,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1748,7 +1893,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1756,9 +1901,9 @@
         <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1770,14 +1915,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1789,14 +1934,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1822,7 +1967,7 @@
         <v>28</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1841,7 +1986,7 @@
         <v>30</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1852,23 +1997,26 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1878,7 +2026,7 @@
       <c r="B29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1920,7 +2068,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1928,10 +2076,10 @@
         <v>40</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1947,21 +2095,21 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1969,21 +2117,21 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -1991,10 +2139,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>6</v>
@@ -2005,35 +2153,38 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="I42" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>56</v>
+      <c r="I43" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2041,10 +2192,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2055,15 +2206,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I46" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2071,7 +2222,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2079,10 +2230,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2098,10 +2249,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2109,7 +2260,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2117,27 +2268,27 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="I53" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2145,10 +2296,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2156,21 +2307,21 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I56" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2178,32 +2329,32 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I58" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I58" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I59" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2211,10 +2362,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2222,10 +2373,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2241,10 +2392,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2252,21 +2403,21 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>76</v>
+        <v>374</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2274,10 +2425,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H66" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -2285,10 +2436,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -2296,7 +2447,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>6</v>
@@ -2307,10 +2458,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -2318,7 +2469,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -2334,13 +2485,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I72" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -2348,24 +2499,24 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I73" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I73" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I74" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2373,30 +2524,30 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H75" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D76" s="2" t="s">
+      <c r="I76" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -2404,10 +2555,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -2415,7 +2566,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -2423,10 +2574,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -2434,7 +2585,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>6</v>
@@ -2445,7 +2596,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -2453,10 +2604,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -2464,7 +2615,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -2475,15 +2626,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I85" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -2499,7 +2650,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -2507,7 +2658,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -2515,7 +2666,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -2523,7 +2674,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>6</v>
@@ -2534,24 +2685,24 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H91" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H91" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="I92" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -2559,7 +2710,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -2567,10 +2718,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2578,10 +2729,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -2589,12 +2740,12 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I96" s="1" t="s">
+      <c r="I96" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2611,7 +2762,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -2619,10 +2770,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -2630,10 +2781,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -2641,10 +2792,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -2660,21 +2811,21 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>49</v>
+        <v>132</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -2682,24 +2833,24 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I106" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2707,10 +2858,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -2718,10 +2869,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -2729,10 +2880,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -2740,10 +2891,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -2751,10 +2902,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -2762,35 +2913,35 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I113" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="I113" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D114" s="2" t="s">
+      <c r="I114" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -2798,24 +2949,24 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I116" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -2831,10 +2982,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -2842,7 +2993,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -2850,10 +3001,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -2861,10 +3012,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -2872,7 +3023,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -2880,24 +3031,24 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="I124" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2905,13 +3056,13 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="I125" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -2919,24 +3070,27 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="I127" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -2952,27 +3106,27 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H130" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H130" s="2" t="s">
+      <c r="I130" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="I130" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2980,13 +3134,13 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E131" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I131" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -2994,10 +3148,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -3005,21 +3159,21 @@
         <v>19</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I133" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I133" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I134" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -3027,10 +3181,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H135" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -3038,7 +3192,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -3046,10 +3200,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -3057,27 +3211,27 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="D139" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I139" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="I139" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -3085,10 +3239,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -3099,15 +3253,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I142" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="I142" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -3115,21 +3269,21 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E144" s="2" t="s">
+      <c r="I144" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="I144" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -3137,24 +3291,24 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="I146" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="I146" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -3164,22 +3318,22 @@
       <c r="H147" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I147" s="1" t="s">
+      <c r="I147" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="I148" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="I148" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -3187,16 +3341,16 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="E149" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E149" s="2" t="s">
+      <c r="F149" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -3204,13 +3358,13 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -3218,10 +3372,10 @@
         <v>40</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="I151" s="1" t="s">
-        <v>207</v>
+        <v>414</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -3229,24 +3383,24 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="I152" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I153" s="1" t="s">
-        <v>210</v>
+      <c r="I153" s="2" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -3254,13 +3408,13 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -3268,7 +3422,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -3276,10 +3430,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -3287,10 +3441,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -3298,24 +3452,24 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I158" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D158" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="I158" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I159" s="1" t="s">
-        <v>59</v>
+        <v>217</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -3323,10 +3477,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -3334,18 +3488,18 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="I162" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3353,13 +3507,13 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="I163" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -3367,10 +3521,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -3378,10 +3532,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -3389,13 +3543,13 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I166" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="I166" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -3403,24 +3557,24 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I167" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E167" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="I167" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="I168" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
+      </c>
+      <c r="I168" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -3428,10 +3582,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -3444,46 +3598,46 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="I172" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="I172" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I173" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E173" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="I173" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I174" s="1" t="s">
-        <v>245</v>
+        <v>100</v>
+      </c>
+      <c r="I174" s="2" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -3491,7 +3645,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>6</v>
@@ -3502,10 +3656,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -3513,7 +3667,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -3521,7 +3675,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>6</v>
@@ -3532,7 +3686,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -3540,10 +3694,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -3551,7 +3705,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>6</v>
@@ -3562,7 +3716,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>6</v>
@@ -3573,24 +3727,24 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I184" s="1" t="s">
-        <v>258</v>
+        <v>100</v>
+      </c>
+      <c r="I184" s="2" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -3598,10 +3752,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -3609,10 +3763,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -3620,7 +3774,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>6</v>
@@ -3631,10 +3785,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -3642,10 +3796,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3653,35 +3807,35 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="I190" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="I190" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I191" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="I191" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I192" s="1" t="s">
-        <v>267</v>
+        <v>110</v>
+      </c>
+      <c r="I192" s="2" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -3689,10 +3843,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -3708,21 +3862,21 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="I196" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
+      </c>
+      <c r="I196" s="2" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3730,10 +3884,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -3741,10 +3895,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -3752,18 +3906,18 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I200" s="1" t="s">
-        <v>278</v>
+        <v>172</v>
+      </c>
+      <c r="I200" s="2" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -3771,10 +3925,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -3782,10 +3936,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
@@ -3793,7 +3947,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>6</v>
@@ -3804,10 +3958,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -3815,7 +3969,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G205" s="2" t="s">
         <v>6</v>
@@ -3826,35 +3980,35 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I207" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="I207" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I208" s="1" t="s">
-        <v>49</v>
+        <v>100</v>
+      </c>
+      <c r="I208" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
@@ -3862,21 +4016,21 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I210" s="1" t="s">
-        <v>287</v>
+        <v>143</v>
+      </c>
+      <c r="I210" s="2" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -3884,10 +4038,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -3895,10 +4049,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E212" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -3906,7 +4060,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -3914,10 +4068,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
@@ -3925,21 +4079,21 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="I216" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
+      </c>
+      <c r="I216" s="2" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -3947,21 +4101,21 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="I218" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
+      </c>
+      <c r="I218" s="2" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -3969,10 +4123,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -3983,18 +4137,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I221" s="1" t="s">
-        <v>299</v>
+        <v>100</v>
+      </c>
+      <c r="I221" s="2" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -4002,10 +4156,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -4013,21 +4167,21 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I224" s="1" t="s">
-        <v>303</v>
+        <v>107</v>
+      </c>
+      <c r="I224" s="2" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -4035,7 +4189,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4043,30 +4197,30 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="G226" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E226" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="G226" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="I227" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="I227" s="1" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -4074,7 +4228,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -4082,7 +4236,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G229" s="2" t="s">
         <v>6</v>
@@ -4093,10 +4247,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="231" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4104,13 +4258,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H231" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -4118,7 +4272,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
@@ -4126,10 +4280,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H233" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
@@ -4145,35 +4299,35 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H235" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I236" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+      <c r="I236" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="I237" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="I237" s="1" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
@@ -4181,10 +4335,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -4192,12 +4346,12 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="I239" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="I239" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4206,10 +4360,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -4217,10 +4371,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>14</v>
@@ -4231,18 +4385,18 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="I243" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
+      </c>
+      <c r="I243" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -4250,7 +4404,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4258,13 +4412,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="I245" s="1" t="s">
-        <v>332</v>
+        <v>341</v>
+      </c>
+      <c r="I245" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -4272,35 +4426,35 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I247" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="I247" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I248" s="1" t="s">
-        <v>335</v>
+        <v>273</v>
+      </c>
+      <c r="I248" s="2" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
@@ -4308,10 +4462,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -4319,10 +4473,10 @@
         <v>19</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I250" s="1" t="s">
-        <v>336</v>
+        <v>173</v>
+      </c>
+      <c r="I250" s="2" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
@@ -4330,10 +4484,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -4341,10 +4495,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -4355,15 +4509,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="I254" s="1" t="s">
-        <v>339</v>
+        <v>245</v>
+      </c>
+      <c r="I254" s="2" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4371,13 +4525,13 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F255" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="E255" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="F255" s="2" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
@@ -4393,10 +4547,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="258" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4404,10 +4558,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
@@ -4415,10 +4569,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -4426,10 +4580,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
@@ -4437,21 +4591,21 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I262" s="1" t="s">
-        <v>349</v>
+        <v>59</v>
+      </c>
+      <c r="I262" s="2" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -4459,10 +4613,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -4470,10 +4624,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -4481,10 +4635,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -4492,7 +4646,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
@@ -4500,10 +4654,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
@@ -4511,10 +4665,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
@@ -4525,18 +4679,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="I270" s="1" t="s">
-        <v>151</v>
+        <v>419</v>
+      </c>
+      <c r="I270" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="271" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4544,21 +4698,21 @@
         <v>270</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>271</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I272" s="1" t="s">
-        <v>358</v>
+        <v>220</v>
+      </c>
+      <c r="I272" s="2" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -4574,24 +4728,24 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="I275" s="1" t="s">
-        <v>331</v>
+        <v>358</v>
+      </c>
+      <c r="I275" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
@@ -4599,7 +4753,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G276" s="2" t="s">
         <v>6</v>
@@ -4618,7 +4772,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
@@ -4626,7 +4780,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
@@ -4634,7 +4788,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
@@ -4642,7 +4796,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4650,10 +4804,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
@@ -4661,10 +4815,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
@@ -4672,7 +4826,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="285" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4680,24 +4834,24 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H285" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="I286" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
+      </c>
+      <c r="I286" s="2" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="287" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4705,16 +4859,16 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="I287" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+      <c r="I287" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -4722,10 +4876,10 @@
         <v>19</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I288" s="1" t="s">
-        <v>375</v>
+        <v>173</v>
+      </c>
+      <c r="I288" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
@@ -4733,10 +4887,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
@@ -4744,21 +4898,21 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G290" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="I291" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
+      </c>
+      <c r="I291" s="2" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
@@ -4774,10 +4928,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
@@ -4785,233 +4939,443 @@
         <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="I295" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="I295" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="I296" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
+      </c>
+      <c r="I296" s="2" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>296</v>
       </c>
+      <c r="B297" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>297</v>
       </c>
+      <c r="B298" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I298" s="2" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>298</v>
       </c>
+      <c r="B299" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>299</v>
       </c>
+      <c r="B300" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>300</v>
       </c>
+      <c r="B301" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>301</v>
       </c>
+      <c r="B302" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>302</v>
       </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B303" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>303</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B304" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="I304" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>304</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B305" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="I305" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>305</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B306" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="H306" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>306</v>
       </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B307" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I307" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>307</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B308" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>308</v>
       </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B309" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>309</v>
       </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B310" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G310" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I310" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>310</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B311" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>311</v>
       </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B312" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>312</v>
       </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B313" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>313</v>
       </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B314" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>314</v>
       </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B315" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>315</v>
       </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B316" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="H316" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>316</v>
       </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B317" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>317</v>
       </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B318" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>318</v>
       </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B319" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H319" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>319</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B320" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>320</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B321" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>321</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B322" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>322</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B323" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>323</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B324" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>324</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B325" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="H325" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>325</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B326" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>326</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B327" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I327" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>327</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B328" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="I328" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>328</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B329" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>329</v>
       </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B330" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>330</v>
       </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B331" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="I331" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>331</v>
       </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B332" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E332" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>335</v>
       </c>

--- a/DeathTrap Dungeon Map.xlsx
+++ b/DeathTrap Dungeon Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2018-2019 School Year\Semester 2\ICS3U\CPT\CPT2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8380961C-754E-4990-972B-ED18977557FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60632D5-5608-4813-9827-D50AE7161509}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{85B14AB0-DF22-4A1D-AF82-67BF0BF00D36}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{85B14AB0-DF22-4A1D-AF82-67BF0BF00D36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="518">
   <si>
     <t>Exit</t>
   </si>
@@ -708,9 +708,6 @@
     <t>iron key, sapphire</t>
   </si>
   <si>
-    <t>361, 302</t>
-  </si>
-  <si>
     <t>1,2</t>
   </si>
   <si>
@@ -762,9 +759,6 @@
     <t>337, 368</t>
   </si>
   <si>
-    <t>Stamina +1, Skill +2, Option one only if not drink from other fountain.</t>
-  </si>
-  <si>
     <t>39, 350</t>
   </si>
   <si>
@@ -1336,6 +1330,261 @@
   </si>
   <si>
     <t>Skeleton Warrior, 8, 6</t>
+  </si>
+  <si>
+    <t>lose gem</t>
+  </si>
+  <si>
+    <t>67, 101</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>cursed wristband</t>
+  </si>
+  <si>
+    <t>Skill-4</t>
+  </si>
+  <si>
+    <t>173, 368</t>
+  </si>
+  <si>
+    <t>water cursed by hag</t>
+  </si>
+  <si>
+    <t>Pixie fountain</t>
+  </si>
+  <si>
+    <t>Stamina +1, Skill +2, Option one only if not drink from cursed fountain.</t>
+  </si>
+  <si>
+    <t>Stamina +1, Luck -2, option 1 only if not drink from pixie fountain.</t>
+  </si>
+  <si>
+    <t>123, 282</t>
+  </si>
+  <si>
+    <t>303, 236</t>
+  </si>
+  <si>
+    <t>jug of acid</t>
+  </si>
+  <si>
+    <t>stamina -1</t>
+  </si>
+  <si>
+    <t>367, 38, 169</t>
+  </si>
+  <si>
+    <t>provisions for option 3</t>
+  </si>
+  <si>
+    <t>dagger</t>
+  </si>
+  <si>
+    <t>229, 107</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>Use potion of trap detection</t>
+  </si>
+  <si>
+    <t>362</t>
+  </si>
+  <si>
+    <t>225, 159</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Roll one dice, subtract from stamina</t>
+  </si>
+  <si>
+    <t>396, 186</t>
+  </si>
+  <si>
+    <t>254, 68</t>
+  </si>
+  <si>
+    <t>Luck-2, roll 2 dice, compare to skill</t>
+  </si>
+  <si>
+    <t>170, 192</t>
+  </si>
+  <si>
+    <t>255, 332, 180</t>
+  </si>
+  <si>
+    <t>1. 2</t>
+  </si>
+  <si>
+    <t>297, 328, 211</t>
+  </si>
+  <si>
+    <t>82, 377</t>
+  </si>
+  <si>
+    <t>use monkey charm</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>Stamina +2</t>
+  </si>
+  <si>
+    <t>31, 3</t>
+  </si>
+  <si>
+    <t>emerald</t>
+  </si>
+  <si>
+    <t>290, 191, 84</t>
+  </si>
+  <si>
+    <t>244, 109</t>
+  </si>
+  <si>
+    <t>165, 234</t>
+  </si>
+  <si>
+    <t>gold coin</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>Cave Troll, 10, 11</t>
+  </si>
+  <si>
+    <t>104, 342</t>
+  </si>
+  <si>
+    <t>Roll two dice, compare with skill</t>
+  </si>
+  <si>
+    <t>273, 113</t>
+  </si>
+  <si>
+    <t>throw ball</t>
+  </si>
+  <si>
+    <t>roll 2 dice, compare with skill</t>
+  </si>
+  <si>
+    <t>118, 295</t>
+  </si>
+  <si>
+    <t>62, 3</t>
+  </si>
+  <si>
+    <t>diamond</t>
+  </si>
+  <si>
+    <t>112, 209</t>
+  </si>
+  <si>
+    <t>213, 145</t>
+  </si>
+  <si>
+    <t>1st Orc, 5, 5, 2nd Orc, 6, 4</t>
+  </si>
+  <si>
+    <t>One at a time</t>
+  </si>
+  <si>
+    <t>331, 128</t>
+  </si>
+  <si>
+    <t>144, 227, 391</t>
+  </si>
+  <si>
+    <t>Use doppelganger potion</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>Caveman, 7, 7</t>
+  </si>
+  <si>
+    <t>23, 154</t>
+  </si>
+  <si>
+    <t>389</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>Skill-4, lose weapons</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Skill+1, Stamina+1, Luck+1</t>
+  </si>
+  <si>
+    <t>Roll one die, add one, subtract from Stamina</t>
+  </si>
+  <si>
+    <t>274, 291</t>
+  </si>
+  <si>
+    <t>59, 14</t>
+  </si>
+  <si>
+    <t>Roll one dice, add 2, subtract from stamina.</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>Stamina-3</t>
+  </si>
+  <si>
+    <t>151, 34</t>
+  </si>
+  <si>
+    <t>trap detection potion</t>
+  </si>
+  <si>
+    <t>Luck +2</t>
+  </si>
+  <si>
+    <t>option 1 if not opened red book</t>
+  </si>
+  <si>
+    <t>use trap detection potion</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>eat elven bread, mirror, monkey charm</t>
+  </si>
+  <si>
+    <t>mirror, bone monkey charm</t>
+  </si>
+  <si>
+    <t>WIN</t>
+  </si>
+  <si>
+    <t>363, 302</t>
+  </si>
+  <si>
+    <t>talk to servant of trialmasters re: doppelganger.</t>
+  </si>
+  <si>
+    <t>281, 192</t>
   </si>
 </sst>
 </file>
@@ -1694,10 +1943,10 @@
   <dimension ref="A1:I401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B317" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B333" sqref="B333"/>
+      <selection pane="bottomRight" activeCell="B172" sqref="B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2016,7 +2265,7 @@
         <v>32</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2076,7 +2325,7 @@
         <v>40</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>41</v>
@@ -2170,7 +2419,7 @@
         <v>101</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>54</v>
@@ -2285,7 +2534,7 @@
         <v>100</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>67</v>
@@ -2414,7 +2663,7 @@
         <v>80</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>75</v>
@@ -3087,7 +3336,7 @@
         <v>101</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I127" s="2" t="s">
         <v>165</v>
@@ -3228,7 +3477,7 @@
         <v>183</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I139" s="2" t="s">
         <v>184</v>
@@ -3372,7 +3621,7 @@
         <v>40</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="I151" s="2" t="s">
         <v>205</v>
@@ -3389,7 +3638,7 @@
         <v>207</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -3521,10 +3770,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -3532,7 +3781,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>100</v>
@@ -3543,13 +3792,13 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D166" s="2" t="s">
+      <c r="I166" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="I166" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -3557,13 +3806,13 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>207</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3571,10 +3820,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I168" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="I168" s="2" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -3582,31 +3831,43 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>169</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>170</v>
       </c>
+      <c r="B171" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="172" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D172" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="I172" s="2" t="s">
         <v>73</v>
@@ -3617,27 +3878,30 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E173" s="2" t="s">
+      <c r="I173" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="I173" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="D174" s="2" t="s">
+        <v>440</v>
+      </c>
       <c r="I174" s="2" t="s">
-        <v>243</v>
+        <v>441</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -3645,7 +3909,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>6</v>
@@ -3656,10 +3920,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -3667,7 +3931,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -3675,7 +3939,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>6</v>
@@ -3686,7 +3950,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -3694,7 +3958,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>101</v>
@@ -3705,7 +3969,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>6</v>
@@ -3716,7 +3980,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>6</v>
@@ -3727,10 +3991,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3738,13 +4002,13 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>100</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -3752,7 +4016,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>100</v>
@@ -3763,7 +4027,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>100</v>
@@ -3774,7 +4038,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>6</v>
@@ -3785,7 +4049,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>100</v>
@@ -3796,10 +4060,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3810,7 +4074,7 @@
         <v>118</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I190" s="2" t="s">
         <v>48</v>
@@ -3821,7 +4085,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I191" s="2" t="s">
         <v>48</v>
@@ -3835,18 +4099,21 @@
         <v>110</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>100</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -3862,7 +4129,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>101</v>
@@ -3873,10 +4140,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3884,10 +4151,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -3895,7 +4162,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>101</v>
@@ -3906,7 +4173,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -3917,7 +4184,7 @@
         <v>172</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -3925,7 +4192,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>100</v>
@@ -3939,7 +4206,7 @@
         <v>86</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
@@ -3947,7 +4214,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>6</v>
@@ -3958,10 +4225,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -3969,7 +4236,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G205" s="2" t="s">
         <v>6</v>
@@ -3980,7 +4247,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>100</v>
@@ -3994,7 +4261,7 @@
         <v>152</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4002,7 +4269,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>100</v>
@@ -4016,10 +4283,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D209" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -4030,7 +4297,7 @@
         <v>143</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -4038,7 +4305,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>100</v>
@@ -4060,7 +4327,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -4068,7 +4335,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>100</v>
@@ -4079,7 +4346,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>100</v>
@@ -4090,10 +4357,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I216" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -4101,7 +4368,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>100</v>
@@ -4112,10 +4379,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -4123,7 +4390,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>100</v>
@@ -4142,13 +4409,13 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>100</v>
       </c>
       <c r="I221" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -4156,7 +4423,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>100</v>
@@ -4167,10 +4434,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -4181,7 +4448,7 @@
         <v>107</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -4189,7 +4456,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4197,13 +4464,13 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G226" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="G226" s="2" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -4211,16 +4478,16 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="I227" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="I227" s="2" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -4236,7 +4503,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G229" s="2" t="s">
         <v>6</v>
@@ -4247,10 +4514,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="231" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4258,13 +4525,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>101</v>
       </c>
       <c r="H231" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -4272,7 +4539,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
@@ -4280,10 +4547,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H233" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
@@ -4299,10 +4566,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H235" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="236" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4310,10 +4577,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I236" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4321,13 +4588,13 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="I237" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="I237" s="2" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
@@ -4335,7 +4602,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>100</v>
@@ -4346,10 +4613,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I239" s="2" t="s">
         <v>34</v>
@@ -4360,7 +4627,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>100</v>
@@ -4371,7 +4638,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>100</v>
@@ -4385,7 +4652,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4393,10 +4660,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I243" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -4415,10 +4682,10 @@
         <v>47</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I245" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -4426,10 +4693,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -4440,7 +4707,7 @@
         <v>107</v>
       </c>
       <c r="I247" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -4448,13 +4715,13 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I248" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
@@ -4476,7 +4743,7 @@
         <v>173</v>
       </c>
       <c r="I250" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
@@ -4484,7 +4751,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>101</v>
@@ -4495,10 +4762,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -4514,10 +4781,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I254" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4525,13 +4792,13 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F255" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="E255" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="F255" s="2" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
@@ -4550,7 +4817,7 @@
         <v>135</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="258" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4558,10 +4825,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
@@ -4569,7 +4836,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>100</v>
@@ -4580,7 +4847,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>100</v>
@@ -4591,7 +4858,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>100</v>
@@ -4605,7 +4872,7 @@
         <v>59</v>
       </c>
       <c r="I262" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -4613,7 +4880,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>101</v>
@@ -4624,7 +4891,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>100</v>
@@ -4635,7 +4902,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>101</v>
@@ -4657,7 +4924,7 @@
         <v>86</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
@@ -4665,7 +4932,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>100</v>
@@ -4684,10 +4951,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I270" s="2" t="s">
         <v>150</v>
@@ -4698,10 +4965,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="272" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4712,7 +4979,7 @@
         <v>220</v>
       </c>
       <c r="I272" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -4728,13 +4995,13 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="275" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4742,10 +5009,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I275" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
@@ -4753,7 +5020,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G276" s="2" t="s">
         <v>6</v>
@@ -4788,7 +5055,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
@@ -4796,7 +5063,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4804,10 +5071,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
@@ -4815,7 +5082,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>100</v>
@@ -4834,10 +5101,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H285" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="286" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4848,10 +5115,10 @@
         <v>220</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I286" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="287" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4859,13 +5126,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="I287" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="I287" s="2" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="288" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -4879,7 +5146,7 @@
         <v>173</v>
       </c>
       <c r="I288" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
@@ -4887,7 +5154,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>100</v>
@@ -4898,7 +5165,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G290" s="2" t="s">
         <v>6</v>
@@ -4909,10 +5176,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I291" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
@@ -4928,10 +5195,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
@@ -4939,10 +5206,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="295" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -4950,13 +5217,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I295" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="296" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4964,10 +5231,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I296" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
@@ -4975,7 +5242,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>100</v>
@@ -4989,7 +5256,7 @@
         <v>86</v>
       </c>
       <c r="I298" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
@@ -4997,7 +5264,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>100</v>
@@ -5008,7 +5275,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>101</v>
@@ -5019,7 +5286,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>100</v>
@@ -5030,13 +5297,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
@@ -5044,10 +5311,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="304" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5055,10 +5322,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I304" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5066,13 +5333,13 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D305" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="D305" s="2" t="s">
-        <v>399</v>
-      </c>
       <c r="I305" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
@@ -5080,10 +5347,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H306" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -5094,7 +5361,7 @@
         <v>221</v>
       </c>
       <c r="I307" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5102,13 +5369,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
@@ -5116,10 +5383,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="310" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5127,7 +5394,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G310" s="2" t="s">
         <v>6</v>
@@ -5141,7 +5408,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>100</v>
@@ -5152,7 +5419,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
@@ -5160,10 +5427,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
@@ -5171,7 +5438,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
@@ -5179,7 +5446,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5187,10 +5454,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H316" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
@@ -5198,7 +5465,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>100</v>
@@ -5220,7 +5487,7 @@
         <v>8</v>
       </c>
       <c r="H319" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
@@ -5228,7 +5495,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="321" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5236,13 +5503,13 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>101</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
@@ -5250,7 +5517,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>100</v>
@@ -5261,7 +5528,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
@@ -5277,10 +5544,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H325" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
@@ -5296,10 +5563,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I327" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="328" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5307,13 +5574,13 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="I328" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="E328" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="I328" s="2" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
@@ -5321,7 +5588,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
@@ -5337,16 +5604,16 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D331" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="C331" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D331" s="2" t="s">
-        <v>432</v>
-      </c>
       <c r="I331" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="332" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5354,355 +5621,787 @@
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>332</v>
       </c>
+      <c r="B333" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G333" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I333" s="2" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>333</v>
       </c>
+      <c r="B334" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>334</v>
       </c>
+      <c r="B335" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>335</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B336" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="G336" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>336</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B337" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="I337" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>337</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B338" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I338" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>338</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B339" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>339</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B340" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="H340" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="I340" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>340</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B341" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>341</v>
       </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B342" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H342" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>342</v>
       </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B343" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H343" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>343</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B344" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I344" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>344</v>
       </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B345" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>345</v>
       </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B346" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="I346" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>346</v>
       </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B347" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>347</v>
       </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B348" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>348</v>
       </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B349" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="I349" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>349</v>
       </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B350" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E350" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>350</v>
       </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B351" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="I351" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>351</v>
       </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B352" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="H352" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>352</v>
       </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B353" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>353</v>
       </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B354" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="I354" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>354</v>
       </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B355" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I355" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>355</v>
       </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B356" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>356</v>
       </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B357" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>357</v>
       </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B358" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>358</v>
       </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B359" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I359" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>359</v>
       </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B360" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B361" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>361</v>
       </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B362" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="G362" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I362" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>362</v>
       </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B363" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>363</v>
       </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B364" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="I364" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>364</v>
       </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B365" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="H365" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>365</v>
       </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B366" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>366</v>
       </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B367" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>367</v>
       </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B368" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H368" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>368</v>
       </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B369" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H369" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>369</v>
       </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B370" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E370" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>370</v>
       </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B371" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="I371" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>371</v>
       </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B372" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="I372" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>372</v>
       </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B373" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>373</v>
       </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B374" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>374</v>
       </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B375" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="G375" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>375</v>
       </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B376" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D376" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>376</v>
       </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B377" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="H377" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>377</v>
       </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B378" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I378" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>378</v>
       </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B379" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="G379" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>379</v>
       </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B380" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>380</v>
       </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B381" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E381" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="I381" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>381</v>
       </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B382" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>382</v>
       </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B383" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>383</v>
       </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B384" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>384</v>
       </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B385" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I385" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>385</v>
       </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B386" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I386" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>386</v>
       </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B387" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="I387" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>387</v>
       </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B388" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E388" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>388</v>
       </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" s="1">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B389" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="I390" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>390</v>
       </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B391" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D391" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="I391" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>391</v>
       </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B392" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="I392" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>392</v>
       </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B393" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I393" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>393</v>
       </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B394" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>394</v>
       </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B395" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="I395" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>395</v>
       </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B396" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="I396" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>396</v>
       </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B397" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>397</v>
       </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B398" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D398" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="H398" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="I398" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>398</v>
       </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B399" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I399" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>399</v>
       </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B400" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D400" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="I400" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>400</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>514</v>
       </c>
     </row>
   </sheetData>

--- a/DeathTrap Dungeon Map.xlsx
+++ b/DeathTrap Dungeon Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2018-2019 School Year\Semester 2\ICS3U\CPT\CPT2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60632D5-5608-4813-9827-D50AE7161509}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FF0416-B4E5-436A-A384-08CADC07E021}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{85B14AB0-DF22-4A1D-AF82-67BF0BF00D36}"/>
+    <workbookView xWindow="43815" yWindow="4545" windowWidth="27525" windowHeight="14310" xr2:uid="{85B14AB0-DF22-4A1D-AF82-67BF0BF00D36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="521">
   <si>
     <t>Exit</t>
   </si>
@@ -114,9 +114,6 @@
     <t>97,116</t>
   </si>
   <si>
-    <t>Same fight as before, until you win one round</t>
-  </si>
-  <si>
     <t>63,184,311</t>
   </si>
   <si>
@@ -1585,6 +1582,18 @@
   </si>
   <si>
     <t>281, 192</t>
+  </si>
+  <si>
+    <t>Bloodbeast, 12, 8</t>
+  </si>
+  <si>
+    <t>Win one round, then test luck</t>
+  </si>
+  <si>
+    <t>dwarf chainmail</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -1943,10 +1952,10 @@
   <dimension ref="A1:I401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B112" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B172" sqref="B172"/>
+      <selection pane="bottomRight" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1968,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -1977,7 +1986,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
@@ -1997,7 +2006,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2025,8 +2034,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>520</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -2070,7 +2079,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2095,7 +2104,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>14</v>
@@ -2109,7 +2118,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2120,7 +2129,7 @@
         <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2131,7 +2140,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2150,7 +2159,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>20</v>
@@ -2194,7 +2203,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2202,10 +2211,13 @@
         <v>26</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>27</v>
+        <v>517</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2213,10 +2225,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2224,7 +2236,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2232,10 +2244,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2243,7 +2255,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2262,21 +2274,24 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2284,7 +2299,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2292,7 +2307,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>6</v>
@@ -2303,10 +2318,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2314,7 +2329,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2322,13 +2337,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2344,10 +2359,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -2355,10 +2370,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2366,10 +2381,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2377,10 +2392,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2388,10 +2403,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>6</v>
@@ -2402,10 +2417,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -2413,16 +2428,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="I42" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -2433,7 +2448,7 @@
         <v>21</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2441,10 +2456,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2460,10 +2475,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I46" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2471,7 +2486,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2479,10 +2494,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2490,7 +2505,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2498,10 +2513,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2509,7 +2524,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2517,10 +2532,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -2528,16 +2543,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="I53" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2545,10 +2560,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2556,7 +2571,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -2564,13 +2579,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I56" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2578,10 +2593,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2589,10 +2604,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I58" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2600,10 +2615,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I59" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2611,10 +2626,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2622,10 +2637,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2641,10 +2656,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2652,7 +2667,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2660,13 +2675,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2674,10 +2689,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H66" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -2685,10 +2700,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -2696,7 +2711,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>6</v>
@@ -2707,10 +2722,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -2718,7 +2733,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -2734,13 +2749,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I72" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -2748,10 +2763,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I73" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -2759,13 +2774,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I74" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2773,13 +2788,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H75" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -2787,16 +2802,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D76" s="2" t="s">
+      <c r="I76" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -2804,10 +2819,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -2815,7 +2830,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -2823,10 +2838,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -2834,7 +2849,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>6</v>
@@ -2845,7 +2860,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -2853,10 +2868,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -2864,7 +2879,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -2872,7 +2887,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2880,10 +2895,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I85" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -2899,7 +2914,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -2907,7 +2922,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -2915,7 +2930,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -2923,7 +2938,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>6</v>
@@ -2934,10 +2949,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H91" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2945,13 +2960,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="I92" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -2959,7 +2974,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -2967,10 +2982,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2978,10 +2993,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -2989,13 +3004,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="I96" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -3011,7 +3026,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -3019,10 +3034,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -3030,10 +3045,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -3041,10 +3056,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -3060,10 +3075,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3071,10 +3086,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -3082,7 +3097,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -3090,16 +3105,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I106" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3107,10 +3122,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -3118,10 +3133,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -3129,10 +3144,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -3140,10 +3155,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -3151,10 +3166,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -3162,7 +3177,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3170,10 +3185,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I113" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="I113" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -3181,16 +3196,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D114" s="2" t="s">
+      <c r="I114" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -3198,10 +3213,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3209,13 +3224,13 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I116" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -3231,10 +3246,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -3242,7 +3257,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -3250,10 +3265,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -3261,10 +3276,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -3272,7 +3287,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -3280,10 +3295,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -3291,13 +3306,13 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="I124" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="I124" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -3305,13 +3320,13 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="I125" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -3319,7 +3334,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>6</v>
@@ -3330,16 +3345,16 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="I127" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -3347,7 +3362,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -3355,10 +3370,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -3366,16 +3381,16 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H130" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H130" s="2" t="s">
+      <c r="I130" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="I130" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -3383,13 +3398,13 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E131" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I131" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="I131" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -3397,10 +3412,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -3408,21 +3423,21 @@
         <v>19</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I133" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I134" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="I134" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -3430,10 +3445,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H135" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -3441,7 +3456,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -3449,10 +3464,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -3460,27 +3475,27 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="D139" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="I139" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="I139" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -3488,10 +3503,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -3502,15 +3517,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I142" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="I142" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -3518,21 +3533,21 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E144" s="2" t="s">
+      <c r="I144" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="I144" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -3540,24 +3555,24 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="I146" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="I146" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -3571,18 +3586,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="I148" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="I148" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -3590,16 +3605,16 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="E149" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E149" s="2" t="s">
+      <c r="F149" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -3607,7 +3622,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>6</v>
@@ -3618,13 +3633,13 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -3632,16 +3647,16 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E152" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="I152" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -3649,7 +3664,7 @@
         <v>21</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -3657,13 +3672,13 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -3671,7 +3686,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -3679,10 +3694,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -3690,10 +3705,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -3701,24 +3716,24 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="I158" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="I158" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -3726,10 +3741,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H160" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="H160" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -3737,18 +3752,18 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I162" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="I162" s="2" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3756,13 +3771,13 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D163" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="I163" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -3770,10 +3785,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -3781,10 +3796,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -3792,13 +3807,13 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D166" s="2" t="s">
+      <c r="I166" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="I166" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -3806,24 +3821,24 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I168" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="I168" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -3831,10 +3846,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -3842,10 +3857,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -3853,38 +3868,38 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D172" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D172" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="I172" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E173" s="2" t="s">
+      <c r="I173" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="I173" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -3892,16 +3907,16 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D174" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I174" s="2" t="s">
         <v>440</v>
-      </c>
-      <c r="I174" s="2" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -3909,7 +3924,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>6</v>
@@ -3920,10 +3935,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -3931,7 +3946,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -3939,7 +3954,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>6</v>
@@ -3950,7 +3965,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -3958,10 +3973,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -3969,7 +3984,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>6</v>
@@ -3980,7 +3995,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>6</v>
@@ -3991,24 +4006,24 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H183" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="H183" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I184" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I184" s="2" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -4016,10 +4031,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -4027,10 +4042,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -4038,7 +4053,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>6</v>
@@ -4049,10 +4064,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -4060,10 +4075,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H189" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="H189" s="2" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4071,35 +4086,35 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4107,13 +4122,13 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -4129,21 +4144,21 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I196" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="I196" s="2" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4151,10 +4166,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -4162,10 +4177,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -4173,18 +4188,18 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -4192,10 +4207,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -4203,10 +4218,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
@@ -4214,7 +4229,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>6</v>
@@ -4225,10 +4240,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E204" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -4236,7 +4251,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G205" s="2" t="s">
         <v>6</v>
@@ -4247,35 +4262,35 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
@@ -4283,21 +4298,21 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D209" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D209" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -4305,10 +4320,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -4316,10 +4331,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E212" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -4327,7 +4342,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -4335,10 +4350,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
@@ -4346,21 +4361,21 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="I216" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="I216" s="2" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -4368,21 +4383,21 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I218" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="I218" s="2" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -4390,10 +4405,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -4404,18 +4419,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I221" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I221" s="2" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -4423,10 +4438,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -4434,21 +4449,21 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="H223" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="H223" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -4456,7 +4471,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4464,30 +4479,30 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E226" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="E226" s="2" t="s">
+      <c r="G226" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="G226" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D227" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C227" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D227" s="2" t="s">
+      <c r="I227" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="I227" s="2" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -4495,7 +4510,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -4503,7 +4518,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G229" s="2" t="s">
         <v>6</v>
@@ -4514,10 +4529,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D230" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="231" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4525,13 +4540,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H231" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H231" s="2" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -4539,7 +4554,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
@@ -4547,10 +4562,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H233" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="H233" s="2" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
@@ -4566,35 +4581,35 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H235" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I236" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E237" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="E237" s="2" t="s">
+      <c r="I237" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="I237" s="2" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
@@ -4602,10 +4617,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -4613,13 +4628,13 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D239" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D239" s="2" t="s">
-        <v>322</v>
-      </c>
       <c r="I239" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -4627,10 +4642,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -4638,10 +4653,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>14</v>
@@ -4652,18 +4667,18 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I243" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="I243" s="2" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -4671,7 +4686,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4679,13 +4694,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I245" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -4693,35 +4708,35 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I247" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E248" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E248" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="I248" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
@@ -4729,10 +4744,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -4740,10 +4755,10 @@
         <v>19</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I250" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
@@ -4751,10 +4766,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -4762,10 +4777,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -4773,18 +4788,18 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I254" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4792,13 +4807,13 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E255" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E255" s="2" t="s">
+      <c r="F255" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="F255" s="2" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
@@ -4814,10 +4829,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="258" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4825,10 +4840,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D258" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
@@ -4836,10 +4851,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -4847,10 +4862,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
@@ -4858,21 +4873,21 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I262" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -4880,10 +4895,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -4891,10 +4906,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -4902,10 +4917,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -4913,7 +4928,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
@@ -4921,10 +4936,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
@@ -4932,10 +4947,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
@@ -4951,13 +4966,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I270" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="271" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4965,21 +4980,21 @@
         <v>270</v>
       </c>
       <c r="B271" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D271" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D271" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>271</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I272" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -4995,24 +5010,24 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D274" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C274" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I275" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
@@ -5020,7 +5035,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G276" s="2" t="s">
         <v>6</v>
@@ -5039,7 +5054,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
@@ -5047,7 +5062,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
@@ -5055,7 +5070,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
@@ -5063,7 +5078,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5071,10 +5086,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D282" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
@@ -5082,10 +5097,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
@@ -5093,7 +5108,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="285" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -5101,24 +5116,24 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H285" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="H285" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D286" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="I286" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="I286" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="287" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -5126,16 +5141,16 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D287" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="D287" s="2" t="s">
+      <c r="I287" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="I287" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -5143,10 +5158,10 @@
         <v>19</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I288" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
@@ -5154,10 +5169,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
@@ -5165,21 +5180,21 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G290" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I291" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="I291" s="2" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
@@ -5187,7 +5202,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
@@ -5195,10 +5210,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
@@ -5206,35 +5221,35 @@
         <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C294" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C294" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="295" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I295" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I296" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="I296" s="2" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
@@ -5242,10 +5257,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
@@ -5253,10 +5268,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I298" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
@@ -5264,10 +5279,10 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
@@ -5275,10 +5290,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
@@ -5286,10 +5301,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
@@ -5297,13 +5312,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D302" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="C302" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D302" s="2" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
@@ -5311,35 +5326,35 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E303" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="E303" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="I304" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="I304" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="I305" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="D305" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="I305" s="2" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
@@ -5347,21 +5362,21 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H306" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I307" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5369,13 +5384,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D308" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="C308" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D308" s="2" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
@@ -5383,24 +5398,24 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D309" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="D309" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G310" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I310" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
@@ -5408,10 +5423,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
@@ -5419,7 +5434,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
@@ -5427,10 +5442,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E313" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="E313" s="2" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
@@ -5438,7 +5453,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
@@ -5446,7 +5461,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5454,10 +5469,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="H316" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="H316" s="2" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
@@ -5465,10 +5480,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
@@ -5487,7 +5502,7 @@
         <v>8</v>
       </c>
       <c r="H319" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
@@ -5495,7 +5510,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="321" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5503,13 +5518,13 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D321" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="C321" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D321" s="2" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
@@ -5517,10 +5532,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
@@ -5528,7 +5543,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
@@ -5536,7 +5551,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="325" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5544,10 +5559,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="H325" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="H325" s="2" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
@@ -5563,10 +5578,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="I327" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="I327" s="2" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="328" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5574,13 +5589,13 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E328" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="E328" s="2" t="s">
+      <c r="I328" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="I328" s="2" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
@@ -5588,7 +5603,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
@@ -5604,16 +5619,16 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="I331" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="C331" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D331" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="I331" s="2" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="332" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5621,10 +5636,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E332" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="E332" s="2" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
@@ -5632,13 +5647,13 @@
         <v>332</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G333" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I333" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
@@ -5662,7 +5677,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G336" s="2" t="s">
         <v>6</v>
@@ -5673,13 +5688,13 @@
         <v>336</v>
       </c>
       <c r="B337" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D337" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="D337" s="2" t="s">
+      <c r="I337" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="I337" s="2" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="338" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -5687,16 +5702,16 @@
         <v>337</v>
       </c>
       <c r="B338" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D338" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="C338" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D338" s="2" t="s">
-        <v>439</v>
-      </c>
       <c r="I338" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
@@ -5704,7 +5719,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
@@ -5712,13 +5727,13 @@
         <v>339</v>
       </c>
       <c r="B340" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="H340" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="H340" s="2" t="s">
+      <c r="I340" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="I340" s="2" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
@@ -5726,7 +5741,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="342" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5734,13 +5749,13 @@
         <v>341</v>
       </c>
       <c r="B342" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H342" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="C342" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H342" s="2" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
@@ -5748,10 +5763,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H343" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
@@ -5759,13 +5774,13 @@
         <v>343</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I344" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
@@ -5773,10 +5788,10 @@
         <v>344</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="346" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5784,10 +5799,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="I346" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="I346" s="2" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
@@ -5795,7 +5810,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
@@ -5811,10 +5826,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I349" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
@@ -5822,10 +5837,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="351" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5833,10 +5848,10 @@
         <v>350</v>
       </c>
       <c r="B351" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="I351" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="I351" s="2" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
@@ -5844,10 +5859,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H352" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
@@ -5855,10 +5870,10 @@
         <v>352</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
@@ -5866,10 +5881,10 @@
         <v>353</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I354" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="355" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5880,7 +5895,7 @@
         <v>21</v>
       </c>
       <c r="I355" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
@@ -5888,7 +5903,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
@@ -5896,10 +5911,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
@@ -5907,10 +5922,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
@@ -5918,10 +5933,10 @@
         <v>358</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I359" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
@@ -5937,10 +5952,10 @@
         <v>360</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
@@ -5948,13 +5963,13 @@
         <v>361</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G362" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I362" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
@@ -5962,7 +5977,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
@@ -5970,10 +5985,10 @@
         <v>363</v>
       </c>
       <c r="B364" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="I364" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="I364" s="2" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
@@ -5981,10 +5996,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="H365" s="2" t="s">
         <v>469</v>
-      </c>
-      <c r="H365" s="2" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
@@ -5992,10 +6007,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
@@ -6011,13 +6026,13 @@
         <v>367</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H368" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.25">
@@ -6025,13 +6040,13 @@
         <v>368</v>
       </c>
       <c r="B369" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H369" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="C369" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H369" s="2" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="370" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6039,10 +6054,10 @@
         <v>369</v>
       </c>
       <c r="B370" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E370" s="2" t="s">
         <v>475</v>
-      </c>
-      <c r="E370" s="2" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="371" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6050,10 +6065,10 @@
         <v>370</v>
       </c>
       <c r="B371" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="I371" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="I371" s="2" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="372" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6061,13 +6076,13 @@
         <v>371</v>
       </c>
       <c r="B372" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D372" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="D372" s="2" t="s">
+      <c r="I372" s="2" t="s">
         <v>480</v>
-      </c>
-      <c r="I372" s="2" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.25">
@@ -6083,7 +6098,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.25">
@@ -6091,7 +6106,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G375" s="2" t="s">
         <v>6</v>
@@ -6102,10 +6117,10 @@
         <v>375</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.25">
@@ -6113,10 +6128,10 @@
         <v>376</v>
       </c>
       <c r="B377" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="H377" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="H377" s="2" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
@@ -6124,10 +6139,10 @@
         <v>377</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I378" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.25">
@@ -6135,7 +6150,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G379" s="2" t="s">
         <v>6</v>
@@ -6146,10 +6161,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="381" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6157,13 +6172,13 @@
         <v>380</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E381" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="I381" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="I381" s="2" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.25">
@@ -6171,10 +6186,10 @@
         <v>381</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.25">
@@ -6182,10 +6197,10 @@
         <v>382</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.25">
@@ -6193,7 +6208,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.25">
@@ -6201,10 +6216,10 @@
         <v>384</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I385" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.25">
@@ -6212,13 +6227,13 @@
         <v>385</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I386" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.25">
@@ -6226,10 +6241,10 @@
         <v>386</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I387" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.25">
@@ -6237,10 +6252,10 @@
         <v>387</v>
       </c>
       <c r="B388" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="E388" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="E388" s="2" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.25">
@@ -6248,21 +6263,21 @@
         <v>388</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B390" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B390" s="1" t="s">
+      <c r="I390" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="I390" s="2" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.25">
@@ -6270,16 +6285,16 @@
         <v>390</v>
       </c>
       <c r="B391" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D391" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C391" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D391" s="2" t="s">
-        <v>355</v>
-      </c>
       <c r="I391" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.25">
@@ -6287,10 +6302,10 @@
         <v>391</v>
       </c>
       <c r="B392" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="I392" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="I392" s="2" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="393" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6298,13 +6313,13 @@
         <v>392</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I393" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.25">
@@ -6312,10 +6327,10 @@
         <v>393</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="395" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6323,10 +6338,10 @@
         <v>394</v>
       </c>
       <c r="B395" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="I395" s="2" t="s">
         <v>502</v>
-      </c>
-      <c r="I395" s="2" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.25">
@@ -6334,10 +6349,10 @@
         <v>395</v>
       </c>
       <c r="B396" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="I396" s="2" t="s">
         <v>504</v>
-      </c>
-      <c r="I396" s="2" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.25">
@@ -6345,10 +6360,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="398" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -6356,19 +6371,19 @@
         <v>397</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D398" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="H398" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="I398" s="2" t="s">
         <v>507</v>
-      </c>
-      <c r="H398" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="I398" s="2" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.25">
@@ -6376,10 +6391,10 @@
         <v>398</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I399" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="400" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -6387,13 +6402,13 @@
         <v>399</v>
       </c>
       <c r="B400" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D400" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="D400" s="2" t="s">
-        <v>512</v>
-      </c>
       <c r="I400" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
@@ -6401,7 +6416,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>

--- a/DeathTrap Dungeon Map.xlsx
+++ b/DeathTrap Dungeon Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2018-2019 School Year\Semester 2\ICS3U\CPT\CPT2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FF0416-B4E5-436A-A384-08CADC07E021}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D39AC7-2133-4D71-920C-CD4FD54F6D25}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43815" yWindow="4545" windowWidth="27525" windowHeight="14310" xr2:uid="{85B14AB0-DF22-4A1D-AF82-67BF0BF00D36}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{85B14AB0-DF22-4A1D-AF82-67BF0BF00D36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="521">
   <si>
     <t>Exit</t>
   </si>
@@ -312,9 +312,6 @@
     <t>265, 300, 327</t>
   </si>
   <si>
-    <t>Option one only if have Ring of Wishes</t>
-  </si>
-  <si>
     <t>52, 369</t>
   </si>
   <si>
@@ -1594,6 +1591,9 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>Option one only if have gold ring</t>
   </si>
 </sst>
 </file>
@@ -1952,10 +1952,10 @@
   <dimension ref="A1:I401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F40" sqref="F40"/>
+      <selection pane="bottomRight" activeCell="F255" sqref="F255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -2006,7 +2006,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2035,7 +2035,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -2079,7 +2079,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2104,7 +2104,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>14</v>
@@ -2118,7 +2118,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2129,7 +2129,7 @@
         <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2140,7 +2140,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2159,7 +2159,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>20</v>
@@ -2211,13 +2211,13 @@
         <v>26</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2228,7 +2228,7 @@
         <v>27</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2247,7 +2247,7 @@
         <v>29</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2277,7 +2277,7 @@
         <v>31</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2288,7 +2288,7 @@
         <v>32</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>33</v>
@@ -2340,7 +2340,7 @@
         <v>39</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>40</v>
@@ -2362,7 +2362,7 @@
         <v>41</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -2384,7 +2384,7 @@
         <v>44</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2423,7 +2423,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2431,10 +2431,10 @@
         <v>52</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>53</v>
@@ -2459,7 +2459,7 @@
         <v>55</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2516,7 +2516,7 @@
         <v>61</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2538,7 +2538,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2546,10 +2546,10 @@
         <v>65</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>66</v>
@@ -2563,7 +2563,7 @@
         <v>67</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2574,7 +2574,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>68</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>69</v>
@@ -2596,10 +2596,10 @@
         <v>70</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2640,7 +2640,7 @@
         <v>76</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2659,7 +2659,7 @@
         <v>77</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2670,7 +2670,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>79</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>74</v>
@@ -2703,7 +2703,7 @@
         <v>82</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -2725,7 +2725,7 @@
         <v>84</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -2752,7 +2752,7 @@
         <v>86</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>87</v>
@@ -2769,7 +2769,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2777,13 +2777,13 @@
         <v>90</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2791,27 +2791,27 @@
         <v>92</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D76" s="2" t="s">
+      <c r="I76" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -2819,10 +2819,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -2830,7 +2830,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -2838,10 +2838,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -2849,7 +2849,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>6</v>
@@ -2860,7 +2860,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -2868,10 +2868,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -2879,7 +2879,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -2890,15 +2890,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I85" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -2914,7 +2914,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -2922,7 +2922,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -2930,7 +2930,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -2938,7 +2941,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>6</v>
@@ -2949,24 +2952,24 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H91" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H91" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="I92" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -2982,10 +2985,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2993,10 +2996,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -3004,10 +3007,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="I96" s="2" t="s">
         <v>33</v>
@@ -3026,7 +3029,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -3034,10 +3037,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -3045,10 +3048,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -3056,10 +3059,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -3075,18 +3078,18 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I104" s="2" t="s">
         <v>47</v>
@@ -3097,10 +3100,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -3108,13 +3111,13 @@
         <v>90</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I106" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3122,10 +3125,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -3133,10 +3136,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -3144,10 +3147,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -3155,10 +3158,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -3166,10 +3169,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -3177,35 +3180,35 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I113" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="I113" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D114" s="2" t="s">
+      <c r="I114" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -3213,13 +3216,13 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -3227,10 +3230,10 @@
         <v>62</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I116" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -3246,10 +3249,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -3257,7 +3260,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -3265,10 +3268,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -3276,10 +3279,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -3287,7 +3290,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -3295,24 +3298,24 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="I124" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="I124" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -3320,13 +3323,13 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="I125" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -3334,27 +3337,27 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="I127" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -3370,27 +3373,27 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H130" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H130" s="2" t="s">
+      <c r="I130" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="I130" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -3401,10 +3404,10 @@
         <v>63</v>
       </c>
       <c r="E131" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I131" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="I131" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -3412,7 +3415,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3423,7 +3426,7 @@
         <v>19</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I133" s="2" t="s">
         <v>20</v>
@@ -3434,10 +3437,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I134" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="I134" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -3445,10 +3448,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H135" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -3456,7 +3459,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -3464,10 +3467,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -3475,10 +3478,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3486,16 +3489,16 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="D139" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="I139" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="I139" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -3503,10 +3506,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -3522,10 +3525,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I142" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="I142" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -3533,7 +3536,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -3541,13 +3544,13 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E144" s="2" t="s">
+      <c r="I144" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="I144" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -3555,7 +3558,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -3563,13 +3566,13 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="I146" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="I146" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -3591,13 +3594,13 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="I148" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="I148" s="2" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -3605,16 +3608,16 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="E149" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E149" s="2" t="s">
+      <c r="F149" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -3622,7 +3625,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>6</v>
@@ -3636,10 +3639,10 @@
         <v>39</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -3647,13 +3650,13 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E152" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="I152" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -3664,7 +3667,7 @@
         <v>21</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -3672,13 +3675,13 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -3686,7 +3689,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -3694,10 +3697,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -3705,10 +3708,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -3716,13 +3719,13 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="I158" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="I158" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -3730,7 +3733,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I159" s="2" t="s">
         <v>57</v>
@@ -3741,10 +3744,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H160" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="H160" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -3752,7 +3755,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -3760,10 +3763,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I162" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="I162" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3771,13 +3774,13 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D163" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="I163" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -3785,10 +3788,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -3796,10 +3799,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -3807,13 +3810,13 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D166" s="2" t="s">
+      <c r="I166" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="I166" s="2" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -3821,13 +3824,13 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -3835,10 +3838,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I168" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="I168" s="2" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -3846,10 +3849,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -3860,7 +3863,7 @@
         <v>46</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -3868,10 +3871,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -3879,10 +3882,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D172" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="I172" s="2" t="s">
         <v>72</v>
@@ -3893,13 +3896,13 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E173" s="2" t="s">
+      <c r="I173" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="I173" s="2" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -3907,16 +3910,16 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D174" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="I174" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="I174" s="2" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -3924,7 +3927,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>6</v>
@@ -3935,10 +3938,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -3946,7 +3949,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -3954,7 +3957,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>6</v>
@@ -3965,7 +3968,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -3973,10 +3976,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -3984,7 +3987,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>6</v>
@@ -3995,7 +3998,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>6</v>
@@ -4006,10 +4009,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H183" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="H183" s="2" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -4017,13 +4020,13 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I184" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I184" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -4031,10 +4034,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -4042,10 +4045,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -4053,7 +4056,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>6</v>
@@ -4064,10 +4067,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -4075,10 +4078,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H189" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="H189" s="2" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4086,10 +4089,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I190" s="2" t="s">
         <v>47</v>
@@ -4100,7 +4103,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I191" s="2" t="s">
         <v>47</v>
@@ -4111,10 +4114,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4122,13 +4125,13 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -4144,10 +4147,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -4155,10 +4158,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I196" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="I196" s="2" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4166,10 +4169,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -4177,10 +4180,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -4188,7 +4191,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4196,10 +4199,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -4207,10 +4210,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -4221,7 +4224,7 @@
         <v>85</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
@@ -4229,7 +4232,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>6</v>
@@ -4240,10 +4243,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E204" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -4251,7 +4254,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G205" s="2" t="s">
         <v>6</v>
@@ -4262,10 +4265,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
@@ -4273,10 +4276,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
@@ -4284,10 +4287,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I208" s="2" t="s">
         <v>47</v>
@@ -4298,10 +4301,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D209" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4309,10 +4312,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -4320,10 +4323,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -4331,10 +4334,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E212" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -4342,7 +4345,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -4350,10 +4353,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
@@ -4361,10 +4364,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -4372,10 +4375,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I216" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="I216" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -4383,10 +4386,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4394,10 +4397,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I218" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="I218" s="2" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -4405,10 +4408,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -4424,13 +4427,13 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I221" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I221" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -4438,10 +4441,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -4449,10 +4452,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H223" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="H223" s="2" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4460,10 +4463,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -4471,7 +4474,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4479,13 +4482,13 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E226" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="E226" s="2" t="s">
+      <c r="G226" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="G226" s="2" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4493,16 +4496,16 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D227" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C227" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D227" s="2" t="s">
+      <c r="I227" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="I227" s="2" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -4510,7 +4513,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -4518,7 +4521,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G229" s="2" t="s">
         <v>6</v>
@@ -4529,10 +4532,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D230" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="231" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4540,13 +4543,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H231" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H231" s="2" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -4554,7 +4557,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
@@ -4562,10 +4565,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H233" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="H233" s="2" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
@@ -4581,10 +4584,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H235" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
@@ -4592,10 +4595,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I236" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
@@ -4603,13 +4606,13 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E237" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="E237" s="2" t="s">
+      <c r="I237" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="I237" s="2" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
@@ -4617,10 +4620,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -4628,10 +4631,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D239" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="I239" s="2" t="s">
         <v>33</v>
@@ -4642,10 +4645,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -4653,10 +4656,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>14</v>
@@ -4667,7 +4670,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
@@ -4675,10 +4678,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="I243" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="I243" s="2" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -4686,7 +4689,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4697,10 +4700,10 @@
         <v>46</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I245" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -4708,10 +4711,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4719,10 +4722,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I247" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4730,13 +4733,13 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E248" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E248" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="I248" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
@@ -4744,7 +4747,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4755,10 +4758,10 @@
         <v>19</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I250" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
@@ -4766,10 +4769,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -4777,10 +4780,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -4796,10 +4799,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I254" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4807,13 +4810,13 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E255" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E255" s="2" t="s">
+      <c r="F255" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="F255" s="2" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
@@ -4829,10 +4832,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="258" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4840,10 +4843,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D258" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
@@ -4851,10 +4854,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -4862,10 +4865,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
@@ -4873,10 +4876,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
@@ -4887,7 +4890,7 @@
         <v>58</v>
       </c>
       <c r="I262" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -4895,10 +4898,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -4906,10 +4909,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -4917,10 +4920,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -4939,7 +4942,7 @@
         <v>85</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
@@ -4947,10 +4950,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
@@ -4966,13 +4969,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I270" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="271" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4980,10 +4983,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D271" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
@@ -4991,10 +4994,10 @@
         <v>271</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I272" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -5010,13 +5013,13 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D274" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
@@ -5024,10 +5027,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I275" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
@@ -5035,7 +5038,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G276" s="2" t="s">
         <v>6</v>
@@ -5054,7 +5057,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
@@ -5062,7 +5065,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
@@ -5070,7 +5073,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
@@ -5078,7 +5081,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5086,10 +5089,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D282" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
@@ -5097,10 +5100,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
@@ -5116,10 +5119,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H285" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="H285" s="2" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
@@ -5127,13 +5130,13 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D286" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I286" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="I286" s="2" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="287" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -5141,13 +5144,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D287" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="D287" s="2" t="s">
+      <c r="I287" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="I287" s="2" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="288" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5158,10 +5161,10 @@
         <v>19</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I288" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
@@ -5169,10 +5172,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
@@ -5180,7 +5183,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G290" s="2" t="s">
         <v>6</v>
@@ -5191,10 +5194,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I291" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="I291" s="2" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
@@ -5210,10 +5213,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
@@ -5221,10 +5224,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C294" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="295" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5232,13 +5235,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I295" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
@@ -5246,10 +5249,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="I296" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="I296" s="2" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
@@ -5257,10 +5260,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
@@ -5271,7 +5274,7 @@
         <v>85</v>
       </c>
       <c r="I298" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
@@ -5279,10 +5282,10 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
@@ -5290,10 +5293,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
@@ -5301,10 +5304,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
@@ -5312,13 +5315,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D302" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="C302" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D302" s="2" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
@@ -5326,10 +5329,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E303" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="E303" s="2" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
@@ -5337,10 +5340,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="I304" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="I304" s="2" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
@@ -5348,13 +5351,13 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="I305" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="D305" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="I305" s="2" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
@@ -5362,10 +5365,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H306" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
@@ -5373,10 +5376,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I307" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5384,13 +5387,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D308" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="C308" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D308" s="2" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
@@ -5398,10 +5401,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D309" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="D309" s="2" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
@@ -5409,7 +5412,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G310" s="2" t="s">
         <v>6</v>
@@ -5423,10 +5426,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
@@ -5434,7 +5437,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
@@ -5442,10 +5445,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E313" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="E313" s="2" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
@@ -5453,7 +5456,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
@@ -5461,7 +5464,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5469,10 +5472,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="H316" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="H316" s="2" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
@@ -5480,10 +5483,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
@@ -5502,7 +5505,7 @@
         <v>8</v>
       </c>
       <c r="H319" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
@@ -5510,7 +5513,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="321" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5518,13 +5521,13 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D321" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="C321" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D321" s="2" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
@@ -5532,10 +5535,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
@@ -5543,7 +5546,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
@@ -5559,10 +5562,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="H325" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="H325" s="2" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
@@ -5578,10 +5581,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="I327" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="I327" s="2" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="328" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5589,13 +5592,13 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E328" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="E328" s="2" t="s">
+      <c r="I328" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="I328" s="2" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
@@ -5603,7 +5606,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
@@ -5619,16 +5622,16 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="I331" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="C331" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D331" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="I331" s="2" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="332" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5636,10 +5639,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E332" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="E332" s="2" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
@@ -5647,13 +5650,13 @@
         <v>332</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G333" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I333" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
@@ -5677,7 +5680,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G336" s="2" t="s">
         <v>6</v>
@@ -5688,13 +5691,13 @@
         <v>336</v>
       </c>
       <c r="B337" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D337" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="D337" s="2" t="s">
+      <c r="I337" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="I337" s="2" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="338" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -5702,16 +5705,16 @@
         <v>337</v>
       </c>
       <c r="B338" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D338" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="C338" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D338" s="2" t="s">
-        <v>438</v>
-      </c>
       <c r="I338" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
@@ -5719,7 +5722,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
@@ -5727,13 +5730,13 @@
         <v>339</v>
       </c>
       <c r="B340" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H340" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="H340" s="2" t="s">
+      <c r="I340" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="I340" s="2" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
@@ -5741,7 +5744,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="342" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5749,13 +5752,13 @@
         <v>341</v>
       </c>
       <c r="B342" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H342" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="C342" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H342" s="2" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
@@ -5763,10 +5766,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H343" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
@@ -5774,13 +5777,13 @@
         <v>343</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I344" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
@@ -5788,10 +5791,10 @@
         <v>344</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="346" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5799,10 +5802,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="I346" s="2" t="s">
         <v>450</v>
-      </c>
-      <c r="I346" s="2" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
@@ -5810,7 +5813,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
@@ -5826,10 +5829,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I349" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
@@ -5837,10 +5840,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="351" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5848,10 +5851,10 @@
         <v>350</v>
       </c>
       <c r="B351" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="I351" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="I351" s="2" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
@@ -5859,10 +5862,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H352" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
@@ -5870,10 +5873,10 @@
         <v>352</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
@@ -5881,10 +5884,10 @@
         <v>353</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I354" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="355" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5895,7 +5898,7 @@
         <v>21</v>
       </c>
       <c r="I355" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
@@ -5903,7 +5906,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
@@ -5911,10 +5914,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
@@ -5922,10 +5925,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
@@ -5936,7 +5939,7 @@
         <v>58</v>
       </c>
       <c r="I359" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
@@ -5952,10 +5955,10 @@
         <v>360</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
@@ -5963,13 +5966,13 @@
         <v>361</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G362" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I362" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
@@ -5977,7 +5980,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
@@ -5985,10 +5988,10 @@
         <v>363</v>
       </c>
       <c r="B364" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="I364" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="I364" s="2" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
@@ -5996,10 +5999,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="H365" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="H365" s="2" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
@@ -6007,10 +6010,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
@@ -6026,13 +6029,13 @@
         <v>367</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H368" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.25">
@@ -6040,13 +6043,13 @@
         <v>368</v>
       </c>
       <c r="B369" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H369" s="2" t="s">
         <v>472</v>
-      </c>
-      <c r="C369" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H369" s="2" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="370" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6054,10 +6057,10 @@
         <v>369</v>
       </c>
       <c r="B370" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E370" s="2" t="s">
         <v>474</v>
-      </c>
-      <c r="E370" s="2" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="371" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6065,10 +6068,10 @@
         <v>370</v>
       </c>
       <c r="B371" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="I371" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="I371" s="2" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="372" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6076,13 +6079,13 @@
         <v>371</v>
       </c>
       <c r="B372" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D372" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D372" s="2" t="s">
+      <c r="I372" s="2" t="s">
         <v>479</v>
-      </c>
-      <c r="I372" s="2" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.25">
@@ -6098,7 +6101,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.25">
@@ -6106,7 +6109,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G375" s="2" t="s">
         <v>6</v>
@@ -6117,10 +6120,10 @@
         <v>375</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.25">
@@ -6128,10 +6131,10 @@
         <v>376</v>
       </c>
       <c r="B377" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="H377" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="H377" s="2" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
@@ -6139,10 +6142,10 @@
         <v>377</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I378" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.25">
@@ -6150,7 +6153,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G379" s="2" t="s">
         <v>6</v>
@@ -6161,10 +6164,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="381" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6172,13 +6175,13 @@
         <v>380</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E381" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="I381" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="I381" s="2" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.25">
@@ -6186,10 +6189,10 @@
         <v>381</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.25">
@@ -6197,10 +6200,10 @@
         <v>382</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.25">
@@ -6208,7 +6211,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.25">
@@ -6216,10 +6219,10 @@
         <v>384</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I385" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.25">
@@ -6227,13 +6230,13 @@
         <v>385</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I386" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.25">
@@ -6241,10 +6244,10 @@
         <v>386</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I387" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.25">
@@ -6252,10 +6255,10 @@
         <v>387</v>
       </c>
       <c r="B388" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E388" s="2" t="s">
         <v>491</v>
-      </c>
-      <c r="E388" s="2" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.25">
@@ -6263,21 +6266,21 @@
         <v>388</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B390" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B390" s="1" t="s">
+      <c r="I390" s="2" t="s">
         <v>495</v>
-      </c>
-      <c r="I390" s="2" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.25">
@@ -6285,16 +6288,16 @@
         <v>390</v>
       </c>
       <c r="B391" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D391" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C391" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D391" s="2" t="s">
-        <v>354</v>
-      </c>
       <c r="I391" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.25">
@@ -6302,10 +6305,10 @@
         <v>391</v>
       </c>
       <c r="B392" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="I392" s="2" t="s">
         <v>497</v>
-      </c>
-      <c r="I392" s="2" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="393" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6316,10 +6319,10 @@
         <v>77</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I393" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.25">
@@ -6327,10 +6330,10 @@
         <v>393</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="395" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6338,10 +6341,10 @@
         <v>394</v>
       </c>
       <c r="B395" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="I395" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="I395" s="2" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.25">
@@ -6349,10 +6352,10 @@
         <v>395</v>
       </c>
       <c r="B396" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="I396" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="I396" s="2" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.25">
@@ -6360,10 +6363,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="398" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -6371,19 +6374,19 @@
         <v>397</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D398" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="H398" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="I398" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="H398" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="I398" s="2" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.25">
@@ -6391,10 +6394,10 @@
         <v>398</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I399" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="400" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -6402,13 +6405,13 @@
         <v>399</v>
       </c>
       <c r="B400" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D400" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="D400" s="2" t="s">
-        <v>511</v>
-      </c>
       <c r="I400" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
@@ -6416,7 +6419,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
